--- a/data/trans_bre/P16A97-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Edad-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,23</t>
+          <t>-0,23; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,98</t>
+          <t>0,18; 7,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,77</t>
+          <t>0,06; 7,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,41; —</t>
+          <t>-61,44; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 529,3</t>
+          <t>-2,86; 570,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 550,0</t>
+          <t>-7,02; 466,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,55</t>
+          <t>2,44; 7,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 11,54</t>
+          <t>2,63; 12,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,36</t>
+          <t>0,48; 7,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,05; 852,91</t>
+          <t>87,02; 787,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,28; 227,37</t>
+          <t>29,97; 236,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 412,49</t>
+          <t>-6,27; 342,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,53</t>
+          <t>1,48; 6,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,61</t>
+          <t>5,5; 15,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 13,84</t>
+          <t>5,85; 14,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>47,0; 742,86</t>
+          <t>43,34; 692,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,61; 260,95</t>
+          <t>56,27; 260,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,67; 453,22</t>
+          <t>97,01; 502,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 16,35</t>
+          <t>6,3; 16,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,96; 31,52</t>
+          <t>16,98; 30,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 18,59</t>
+          <t>6,19; 18,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>131,01; 946,85</t>
+          <t>125,61; 1012,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>103,84; 319,78</t>
+          <t>110,34; 297,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,33; 182,96</t>
+          <t>37,29; 178,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 20,58</t>
+          <t>1,28; 20,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 31,28</t>
+          <t>11,03; 30,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,54; 31,32</t>
+          <t>11,85; 30,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,76; 240,9</t>
+          <t>2,71; 229,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,76; 92,54</t>
+          <t>23,01; 90,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,61; 186,26</t>
+          <t>45,19; 183,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 19,45</t>
+          <t>-7,46; 19,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 15,61</t>
+          <t>0,93; 15,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 23,18</t>
+          <t>3,02; 22,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 71,5</t>
+          <t>-19,05; 67,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 21,97</t>
+          <t>1,14; 21,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 42,47</t>
+          <t>4,59; 40,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,6</t>
+          <t>4,19; 7,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,66</t>
+          <t>14,61; 20,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,66</t>
+          <t>8,52; 13,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,11; 208,63</t>
+          <t>84,85; 204,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,17; 126,52</t>
+          <t>76,18; 125,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>61,28; 117,09</t>
+          <t>60,71; 115,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P16A97-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,1</t>
+          <t>-0,26; 3,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,32</t>
+          <t>0,18; 7,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 7,01</t>
+          <t>-0,25; 6,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,44; —</t>
+          <t>-49,27; 1351,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 570,97</t>
+          <t>-3,83; 525,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 466,39</t>
+          <t>-15,21; 425,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,99</t>
+          <t>2,66; 8,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 12,18</t>
+          <t>2,32; 11,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,23</t>
+          <t>0,67; 7,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,02; 787,09</t>
+          <t>85,25; 784,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,97; 236,87</t>
+          <t>28,75; 232,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 342,62</t>
+          <t>5,96; 344,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,52</t>
+          <t>1,33; 6,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 15,59</t>
+          <t>6,3; 15,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 14,22</t>
+          <t>6,17; 13,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,34; 692,51</t>
+          <t>30,71; 663,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,27; 260,39</t>
+          <t>63,2; 258,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>97,01; 502,86</t>
+          <t>103,7; 507,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 16,18</t>
+          <t>6,55; 16,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 30,67</t>
+          <t>17,61; 31,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 18,38</t>
+          <t>5,84; 18,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>125,61; 1012,71</t>
+          <t>108,9; 876,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>110,34; 297,75</t>
+          <t>113,08; 313,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,29; 178,59</t>
+          <t>37,56; 173,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 20,28</t>
+          <t>1,61; 20,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,03; 30,86</t>
+          <t>9,77; 31,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 30,92</t>
+          <t>11,13; 30,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 229,97</t>
+          <t>9,78; 244,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,01; 90,75</t>
+          <t>20,18; 94,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,19; 183,25</t>
+          <t>43,73; 178,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 19,04</t>
+          <t>-7,59; 19,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 15,59</t>
+          <t>1,13; 15,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 22,43</t>
+          <t>3,59; 22,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 67,94</t>
+          <t>-19,36; 69,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 21,22</t>
+          <t>1,39; 21,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 40,26</t>
+          <t>5,54; 41,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,55</t>
+          <t>4,17; 7,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,61; 20,66</t>
+          <t>14,37; 20,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,55</t>
+          <t>8,4; 13,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,85; 204,92</t>
+          <t>84,86; 214,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,18; 125,47</t>
+          <t>76,04; 125,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>60,71; 115,06</t>
+          <t>59,94; 115,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
